--- a/biology/Médecine/Centre_local_de_services_communautaires/Centre_local_de_services_communautaires.xlsx
+++ b/biology/Médecine/Centre_local_de_services_communautaires/Centre_local_de_services_communautaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au Québec, un centre local de services communautaires (CLSC) est un organisme public offrant des services de première ligne en matière de santé (dispensaire, clinique) et d'assistance en matière de services comme le maintien à domicile des personnes âgées ou handicapées, les cours prénataux, les soins aux nouveau-nés, la vaccination des jeunes enfants, les services de formation en hygiène et en santé dans les écoles (infirmière scolaire), etc.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant l'instauration du système public de santé, l'établissement du régime d'assurance hospitalisation et le régime d'assurance-maladie, plusieurs groupes de quartier ont œuvré à la mise en place de cliniques communautaires visant à donner des soins, soit gratuitement, soit au coût le plus bas possible. C'est le cas de la Clinique communautaire de Pointe-Saint-Charles qui, mise sur pied en 1968, a servi de modèle de santé communautaire à la création du réseau des CLSC en 1972.
 Dans la foulée de la Révolution tranquille, la fin des années 1960 et le début des années 1970 voient apparaître le système public de santé donnant, à l'ensemble de la population québécoise, un accès gratuit à une gamme assez étendue de services liés au domaine de la santé, de la solidarité sociale et du support public aux plus démunis.
@@ -546,12 +560,14 @@
           <t>Évolution de la gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, le CLSC est un organisme local qui possédait son propre conseil administratif. Chaque CLSC déterminait la gamme de services qu'il comptait offrir à la clientèle sur son territoire. Par exemple, un CLSC pouvait développer des services offerts aux femmes enceintes et une chambre des naissances tout en n'offrant pas de services de médecine d'urgence ou de clinique sans rendez-vous. Un autre pouvait se spécialiser dans l'éducation sexuelle et la prévention des maladies transmises sexuellement auprès des adolescents avec la collaboration du personnel des écoles du quartier. 
 Une série de changements législatifs allaient transformer le mode de gouvernance locale des CLSC, mode de gouvernance qui à l'origine en avait fait l'originalité, ainsi que leur offre de services.
-En 2000, la Loi sur l'administration publique introduit des notions de transparence et d'imputabilité, liant les contours budgétaires à des résultats au regard de clientèles à desservir. La nouvelle gestion publique axée sur les résultats était dorénavant la norme dans les services publics[2]. Les couleurs locales des services que les CLSC avaient mis en place devaient maintenant migrer vers les programmes du Ministère de la santé et des services sociaux (MSSS) et leurs cibles prioritaires. Les CLSC ont ainsi dû graduellement redéfinir leur offre de services en accord avec les cibles et priorités des programmes du MSSS. 
-En 2004, des changements législatifs ont fusionné les CLSC avec les centres hospitaliers des différentes régions administratives du Québec pour constituer des Centre de santé et de services sociaux (CSSS). En 2015, un autre changement législatif amène une autre vague de fusions d'établissements en créant les Centre intégré de santé et de services sociaux.  Ces Centres sont administrés par un CA dirigé par un PDG nommé par le ministre de la santé. Ils regroupent les différentes missions assumées par la Loi sur les services de santé et les services sociaux, notamment la mission CLSC, qui se retrouve maintenant diluée au sein de grandes organisations avec peu d'input de la part des  communautés desservies, comme c'était le cas lors de leur création. Ceci a eu pour résultat de passer de 182 établissements de santé du Québec en 28 entités administratives,  dont les PDG sont directement sous la gouverne du ministre de la santé[3],[4].
+En 2000, la Loi sur l'administration publique introduit des notions de transparence et d'imputabilité, liant les contours budgétaires à des résultats au regard de clientèles à desservir. La nouvelle gestion publique axée sur les résultats était dorénavant la norme dans les services publics. Les couleurs locales des services que les CLSC avaient mis en place devaient maintenant migrer vers les programmes du Ministère de la santé et des services sociaux (MSSS) et leurs cibles prioritaires. Les CLSC ont ainsi dû graduellement redéfinir leur offre de services en accord avec les cibles et priorités des programmes du MSSS. 
+En 2004, des changements législatifs ont fusionné les CLSC avec les centres hospitaliers des différentes régions administratives du Québec pour constituer des Centre de santé et de services sociaux (CSSS). En 2015, un autre changement législatif amène une autre vague de fusions d'établissements en créant les Centre intégré de santé et de services sociaux.  Ces Centres sont administrés par un CA dirigé par un PDG nommé par le ministre de la santé. Ils regroupent les différentes missions assumées par la Loi sur les services de santé et les services sociaux, notamment la mission CLSC, qui se retrouve maintenant diluée au sein de grandes organisations avec peu d'input de la part des  communautés desservies, comme c'était le cas lors de leur création. Ceci a eu pour résultat de passer de 182 établissements de santé du Québec en 28 entités administratives,  dont les PDG sont directement sous la gouverne du ministre de la santé,.
 </t>
         </is>
       </c>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
